--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -88,16 +97,7 @@
     <t>Egfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>0.2820385065022397</v>
+        <v>0.001513707</v>
       </c>
       <c r="R2">
-        <v>0.2820385065022397</v>
+        <v>0.013623363</v>
       </c>
       <c r="S2">
-        <v>0.006312090355453905</v>
+        <v>1.167056187715301E-05</v>
       </c>
       <c r="T2">
-        <v>0.006312090355453905</v>
+        <v>1.167056187715301E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>23.59108631432719</v>
+        <v>0.09948545461111112</v>
       </c>
       <c r="R3">
-        <v>23.59108631432719</v>
+        <v>0.8953690915000001</v>
       </c>
       <c r="S3">
-        <v>0.5279742480772311</v>
+        <v>0.0007670250279054467</v>
       </c>
       <c r="T3">
-        <v>0.5279742480772311</v>
+        <v>0.0007670250279054467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.08700891073347428</v>
+        <v>0.0005049770555555556</v>
       </c>
       <c r="R4">
-        <v>0.08700891073347428</v>
+        <v>0.0045447935</v>
       </c>
       <c r="S4">
-        <v>0.001947280579132379</v>
+        <v>3.893333368613375E-06</v>
       </c>
       <c r="T4">
-        <v>0.001947280579132379</v>
+        <v>3.893333368613375E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H5">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.2161019297756835</v>
+        <v>0.0009493640000000001</v>
       </c>
       <c r="R5">
-        <v>0.2161019297756835</v>
+        <v>0.008544276</v>
       </c>
       <c r="S5">
-        <v>0.004836413735304037</v>
+        <v>7.31952174756508E-06</v>
       </c>
       <c r="T5">
-        <v>0.004836413735304037</v>
+        <v>7.31952174756508E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H6">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>1.281075232776359</v>
+        <v>0.005503152777777777</v>
       </c>
       <c r="R6">
-        <v>1.281075232776359</v>
+        <v>0.049528375</v>
       </c>
       <c r="S6">
-        <v>0.02867077521329275</v>
+        <v>4.242887494903706E-05</v>
       </c>
       <c r="T6">
-        <v>0.02867077521329275</v>
+        <v>4.242887494903706E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H7">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>8.275879695502852</v>
+        <v>0.04287102372222222</v>
       </c>
       <c r="R7">
-        <v>8.275879695502852</v>
+        <v>0.3858392135</v>
       </c>
       <c r="S7">
-        <v>0.1852161999321377</v>
+        <v>0.0003305322199653494</v>
       </c>
       <c r="T7">
-        <v>0.1852161999321377</v>
+        <v>0.0003305322199653494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H8">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>0.09154370222451261</v>
+        <v>0.209971421286</v>
       </c>
       <c r="R8">
-        <v>0.09154370222451261</v>
+        <v>1.889742791574</v>
       </c>
       <c r="S8">
-        <v>0.002048770315372882</v>
+        <v>0.001618863138343171</v>
       </c>
       <c r="T8">
-        <v>0.002048770315372882</v>
+        <v>0.001618863138343171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H9">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>7.65716500024933</v>
+        <v>13.79996412910745</v>
       </c>
       <c r="R9">
-        <v>7.65716500024933</v>
+        <v>124.199677161967</v>
       </c>
       <c r="S9">
-        <v>0.1713692146069039</v>
+        <v>0.1063966377054743</v>
       </c>
       <c r="T9">
-        <v>0.1713692146069039</v>
+        <v>0.1063966377054743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H10">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>0.02824124235320015</v>
+        <v>0.07004707652922222</v>
       </c>
       <c r="R10">
-        <v>0.02824124235320015</v>
+        <v>0.630423688763</v>
       </c>
       <c r="S10">
-        <v>0.0006320458709500909</v>
+        <v>0.0005400574489963781</v>
       </c>
       <c r="T10">
-        <v>0.0006320458709500909</v>
+        <v>0.0005400574489963781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H11">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>0.07014209142881916</v>
+        <v>0.131689493672</v>
       </c>
       <c r="R11">
-        <v>0.07014209142881916</v>
+        <v>1.185205443048</v>
       </c>
       <c r="S11">
-        <v>0.001569797061791275</v>
+        <v>0.001015315635370667</v>
       </c>
       <c r="T11">
-        <v>0.001569797061791275</v>
+        <v>0.001015315635370667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H12">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>0.4158097810503966</v>
+        <v>0.7633609478611111</v>
       </c>
       <c r="R12">
-        <v>0.4158097810503966</v>
+        <v>6.87024853075</v>
       </c>
       <c r="S12">
-        <v>0.009305924007404164</v>
+        <v>0.005885452849603835</v>
       </c>
       <c r="T12">
-        <v>0.009305924007404164</v>
+        <v>0.005885452849603835</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3005456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.901637</v>
+      </c>
+      <c r="I13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="J13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N13">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O13">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P13">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q13">
+        <v>5.946784802435889</v>
+      </c>
+      <c r="R13">
+        <v>53.52106322192301</v>
+      </c>
+      <c r="S13">
+        <v>0.04584924295583042</v>
+      </c>
+      <c r="T13">
+        <v>0.04584924295583042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.381188</v>
+      </c>
+      <c r="I14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.095902</v>
+      </c>
+      <c r="O14">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P14">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q14">
+        <v>0.5545262990640001</v>
+      </c>
+      <c r="R14">
+        <v>4.990736691576</v>
+      </c>
+      <c r="S14">
+        <v>0.004275354137712959</v>
+      </c>
+      <c r="T14">
+        <v>0.004275354137712958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.381188</v>
+      </c>
+      <c r="I15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N15">
+        <v>137.749091</v>
+      </c>
+      <c r="O15">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P15">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q15">
+        <v>36.44516472223422</v>
+      </c>
+      <c r="R15">
+        <v>328.006482500108</v>
+      </c>
+      <c r="S15">
+        <v>0.2809893526381715</v>
+      </c>
+      <c r="T15">
+        <v>0.2809893526381715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.381188</v>
+      </c>
+      <c r="I16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.699199</v>
+      </c>
+      <c r="O16">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P16">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q16">
+        <v>0.1849915853791111</v>
+      </c>
+      <c r="R16">
+        <v>1.664924268412</v>
+      </c>
+      <c r="S16">
+        <v>0.001426270568821807</v>
+      </c>
+      <c r="T16">
+        <v>0.001426270568821807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.381188</v>
+      </c>
+      <c r="I17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.314504</v>
+      </c>
+      <c r="O17">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P17">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q17">
+        <v>0.347786794528</v>
+      </c>
+      <c r="R17">
+        <v>3.130081150752</v>
+      </c>
+      <c r="S17">
+        <v>0.002681408823237077</v>
+      </c>
+      <c r="T17">
+        <v>0.002681408823237076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.381188</v>
+      </c>
+      <c r="I18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.61975</v>
+      </c>
+      <c r="O18">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P18">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q18">
+        <v>2.016006362555555</v>
+      </c>
+      <c r="R18">
+        <v>18.144057263</v>
+      </c>
+      <c r="S18">
+        <v>0.01554325044340733</v>
+      </c>
+      <c r="T18">
+        <v>0.01554325044340733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.381188</v>
+      </c>
+      <c r="I19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N19">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O19">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P19">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q19">
+        <v>15.70522572847244</v>
+      </c>
+      <c r="R19">
+        <v>141.347031556252</v>
+      </c>
+      <c r="S19">
+        <v>0.1210860547376693</v>
+      </c>
+      <c r="T19">
+        <v>0.1210860547376693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.71648</v>
+      </c>
+      <c r="I20">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J20">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N20">
+        <v>2.095902</v>
+      </c>
+      <c r="O20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q20">
+        <v>0.39973042944</v>
+      </c>
+      <c r="R20">
+        <v>3.59757386496</v>
+      </c>
+      <c r="S20">
+        <v>0.003081890161676246</v>
+      </c>
+      <c r="T20">
+        <v>0.003081890161676246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.71648</v>
+      </c>
+      <c r="I21">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J21">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N21">
+        <v>137.749091</v>
+      </c>
+      <c r="O21">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P21">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q21">
+        <v>26.27150663552</v>
+      </c>
+      <c r="R21">
+        <v>236.44355971968</v>
+      </c>
+      <c r="S21">
+        <v>0.2025512492152525</v>
+      </c>
+      <c r="T21">
+        <v>0.2025512492152525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="H13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="I13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="J13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="N13">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="O13">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="P13">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="Q13">
-        <v>2.686174579090628</v>
-      </c>
-      <c r="R13">
-        <v>2.686174579090628</v>
-      </c>
-      <c r="S13">
-        <v>0.06011724024502577</v>
-      </c>
-      <c r="T13">
-        <v>0.06011724024502577</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.71648</v>
+      </c>
+      <c r="I22">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J22">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.699199</v>
+      </c>
+      <c r="O22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q22">
+        <v>0.13335123328</v>
+      </c>
+      <c r="R22">
+        <v>1.20016109952</v>
+      </c>
+      <c r="S22">
+        <v>0.001028127517008844</v>
+      </c>
+      <c r="T22">
+        <v>0.001028127517008844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.71648</v>
+      </c>
+      <c r="I23">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J23">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.314504</v>
+      </c>
+      <c r="O23">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P23">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q23">
+        <v>0.25070220288</v>
+      </c>
+      <c r="R23">
+        <v>2.25631982592</v>
+      </c>
+      <c r="S23">
+        <v>0.001932894259886232</v>
+      </c>
+      <c r="T23">
+        <v>0.001932894259886232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.71648</v>
+      </c>
+      <c r="I24">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J24">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.61975</v>
+      </c>
+      <c r="O24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q24">
+        <v>1.45323872</v>
+      </c>
+      <c r="R24">
+        <v>13.07914848</v>
+      </c>
+      <c r="S24">
+        <v>0.01120435619577279</v>
+      </c>
+      <c r="T24">
+        <v>0.01120435619577279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.71648</v>
+      </c>
+      <c r="I25">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J25">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N25">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P25">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q25">
+        <v>11.32111612288</v>
+      </c>
+      <c r="R25">
+        <v>101.89004510592</v>
+      </c>
+      <c r="S25">
+        <v>0.08728491460401891</v>
+      </c>
+      <c r="T25">
+        <v>0.08728491460401891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N26">
+        <v>2.095902</v>
+      </c>
+      <c r="O26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q26">
+        <v>0.135957902448</v>
+      </c>
+      <c r="R26">
+        <v>1.223621122032</v>
+      </c>
+      <c r="S26">
+        <v>0.001048224731211071</v>
+      </c>
+      <c r="T26">
+        <v>0.001048224731211071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N27">
+        <v>137.749091</v>
+      </c>
+      <c r="O27">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P27">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q27">
+        <v>8.935569256806222</v>
+      </c>
+      <c r="R27">
+        <v>80.42012331125599</v>
+      </c>
+      <c r="S27">
+        <v>0.06889253595256097</v>
+      </c>
+      <c r="T27">
+        <v>0.06889253595256095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.699199</v>
+      </c>
+      <c r="O28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q28">
+        <v>0.04535595148711111</v>
+      </c>
+      <c r="R28">
+        <v>0.4082035633839999</v>
+      </c>
+      <c r="S28">
+        <v>0.0003496908175277517</v>
+      </c>
+      <c r="T28">
+        <v>0.0003496908175277517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.314504</v>
+      </c>
+      <c r="O29">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P29">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q29">
+        <v>0.085269829696</v>
+      </c>
+      <c r="R29">
+        <v>0.7674284672639999</v>
+      </c>
+      <c r="S29">
+        <v>0.0006574236782425314</v>
+      </c>
+      <c r="T29">
+        <v>0.0006574236782425313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N30">
+        <v>7.61975</v>
+      </c>
+      <c r="O30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q30">
+        <v>0.4942813295555554</v>
+      </c>
+      <c r="R30">
+        <v>4.448531965999999</v>
+      </c>
+      <c r="S30">
+        <v>0.003810870162653387</v>
+      </c>
+      <c r="T30">
+        <v>0.003810870162653387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N31">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P31">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q31">
+        <v>3.850583013140444</v>
+      </c>
+      <c r="R31">
+        <v>34.655247118264</v>
+      </c>
+      <c r="S31">
+        <v>0.02968769208173699</v>
+      </c>
+      <c r="T31">
+        <v>0.02968769208173698</v>
       </c>
     </row>
   </sheetData>
